--- a/demo/导表/电气工程量表.xlsx
+++ b/demo/导表/电气工程量表.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1903,9 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1996,7 +1994,7 @@
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
